--- a/reports/2022-12-10-sitrep.xlsx
+++ b/reports/2022-12-10-sitrep.xlsx
@@ -442,7 +442,7 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">
- 13:53:18 up 27 days, 17:40,  1 user,  load average: 0.00, 0.00, 0.00</t>
+ 13:58:41 up 27 days, 17:45,  1 user,  load average: 0.00, 0.00, 0.00</t>
         </is>
       </c>
     </row>
@@ -454,7 +454,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 13:53:17 up 20:47,  1 user,  load average: 0.21, 0.08, 0.01</t>
+          <t xml:space="preserve"> 13:58:40 up 20:53,  1 user,  load average: 0.14, 0.05, 0.01</t>
         </is>
       </c>
     </row>
